--- a/TDS.xlsx
+++ b/TDS.xlsx
@@ -7,7 +7,9 @@
     <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Month" sheetId="1" r:id="rId1"/>
+    <sheet name="Quartely" sheetId="2" r:id="rId2"/>
+    <sheet name="Annual" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,34 +29,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="5">
-  <si>
-    <t>empCode</t>
-  </si>
-  <si>
-    <t>Quarter</t>
-  </si>
-  <si>
-    <t>TdsAmount</t>
-  </si>
-  <si>
-    <t>PRO000003</t>
-  </si>
-  <si>
-    <t>PRO000004</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Employee/Partner Code</t>
+  </si>
+  <si>
+    <t>Month &amp; Year</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Monthly Fixed Commission               (Point Price)</t>
+  </si>
+  <si>
+    <t>Monthly Fixed Commission</t>
+  </si>
+  <si>
+    <t>Monthly Special Commission (Point Price)</t>
+  </si>
+  <si>
+    <t>Monthly  Special Commission</t>
+  </si>
+  <si>
+    <t>Total Commision</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>Net Payout</t>
+  </si>
+  <si>
+    <t>Quarter &amp; Year</t>
+  </si>
+  <si>
+    <t>Quaterly Commission               (Point Price)</t>
+  </si>
+  <si>
+    <t>Quarterly Commission</t>
+  </si>
+  <si>
+    <t>Q1-2024</t>
+  </si>
+  <si>
+    <t>Annual Commission             (Point Price)</t>
+  </si>
+  <si>
+    <t>Annual Commission</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="mmm/yy"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,12 +261,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -510,28 +570,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,123 +591,139 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,181 +1043,531 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D14 D17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="10.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="9.55555555555556" customWidth="1"/>
+    <col min="3" max="3" width="8.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="17.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="15.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="14.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="10.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" ht="43.2" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>40629</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45413</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F9" si="0">D2*E2</f>
+        <v>10000</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H9" si="1">D2*G2</f>
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I9" si="2">F2+H2</f>
+        <v>11000</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J9" si="3">I2*5/100</f>
+        <v>550</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K9" si="4">I2-J2</f>
+        <v>10450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>40629</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45413</v>
+      </c>
+      <c r="D3">
+        <v>250</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>11000</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="4"/>
+        <v>10450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>40629</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45413</v>
+      </c>
+      <c r="D4">
+        <v>250</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>11000</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>10450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>40629</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45413</v>
+      </c>
+      <c r="D5">
+        <v>250</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>11000</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>10450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>40629</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45413</v>
+      </c>
+      <c r="D6">
+        <v>250</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>11000</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>10450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>40629</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45413</v>
+      </c>
+      <c r="D7">
+        <v>250</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>11000</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>10450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>40629</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45413</v>
+      </c>
+      <c r="D8">
+        <v>250</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>11000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>10450</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>40629</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45413</v>
+      </c>
+      <c r="D9">
+        <v>250</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>11000</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>10450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="9.88888888888889" customWidth="1"/>
+    <col min="3" max="3" width="11.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="12.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="12.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
+        <v>406290</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>750</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <f>D2*E2</f>
+        <v>6000</v>
+      </c>
+      <c r="G2">
+        <f>F2*5/100</f>
+        <v>300</v>
+      </c>
+      <c r="H2">
+        <f>F2-G2</f>
+        <v>5700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="11.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="15.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="13.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="43.2" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>100</v>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>406290</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>2500</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>200</v>
+      <c r="F2">
+        <f>D2*E2</f>
+        <v>10000</v>
+      </c>
+      <c r="G2">
+        <f>F2*5/100</f>
+        <v>500</v>
+      </c>
+      <c r="H2">
+        <f>F2-G2</f>
+        <v>9500</v>
       </c>
     </row>
   </sheetData>

--- a/TDS.xlsx
+++ b/TDS.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>S.No</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Net Payout</t>
+  </si>
+  <si>
+    <t>PDM000001</t>
+  </si>
+  <si>
+    <t>PDM000002</t>
   </si>
   <si>
     <t>Quarter &amp; Year</t>
@@ -93,7 +99,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="mmm/yy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,13 +109,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -570,148 +569,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,12 +1045,12 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.55555555555556" customWidth="1"/>
+    <col min="2" max="2" width="11.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="8.66666666666667" customWidth="1"/>
     <col min="5" max="5" width="17.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="15.2222222222222" customWidth="1"/>
@@ -1099,8 +1098,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>40629</v>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="3">
         <v>45413</v>
@@ -1139,8 +1138,8 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>40629</v>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="3">
         <v>45413</v>
@@ -1179,8 +1178,8 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>40629</v>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="3">
         <v>45413</v>
@@ -1219,8 +1218,8 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>40629</v>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="3">
         <v>45413</v>
@@ -1259,8 +1258,8 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>40629</v>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="3">
         <v>45413</v>
@@ -1299,8 +1298,8 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>40629</v>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="3">
         <v>45413</v>
@@ -1339,8 +1338,8 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>40629</v>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>45413</v>
@@ -1379,8 +1378,8 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>40629</v>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>45413</v>
@@ -1446,16 +1445,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>9</v>
@@ -1472,7 +1471,7 @@
         <v>406290</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>750</v>
@@ -1523,16 +1522,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>9</v>
@@ -1549,7 +1548,7 @@
         <v>406290</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>2500</v>
